--- a/data/trans_orig/P78DS5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78DS5_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B42922-1922-4865-A020-0C0700135BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D91BD25-6884-45F8-BE91-581C065FF221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{684D9A17-18B9-47FC-B015-2079D39DA2AE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13A482DD-C800-4EA9-991B-2C904828F319}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="80">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 5 en 2023 (Tasa respuesta: 95,8%)</t>
   </si>
@@ -113,60 +113,66 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
+    <t>99,31%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
     <t>Huelva</t>
   </si>
   <si>
@@ -209,9 +215,6 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
     <t>0,05%</t>
   </si>
   <si>
@@ -221,9 +224,6 @@
     <t>99,9%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
     <t>99,95%</t>
   </si>
   <si>
@@ -257,6 +257,9 @@
     <t>0,04%</t>
   </si>
   <si>
+    <t>0,14%</t>
+  </si>
+  <si>
     <t>0,02%</t>
   </si>
   <si>
@@ -264,6 +267,9 @@
   </si>
   <si>
     <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>99,98%</t>
@@ -681,7 +687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A765C69-59B8-49AD-B0B4-2B1E60C818B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986EFA1F-E73B-4779-93EF-3F3944306383}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1291,7 +1297,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1324,7 +1330,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1339,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1413,7 +1419,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1431,7 +1437,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1446,7 +1452,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1461,7 +1467,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1479,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1494,7 +1500,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1509,7 +1515,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1568,7 +1574,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1601,7 +1607,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1616,7 +1622,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,7 +1655,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1664,7 +1670,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1741,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1750,13 +1756,13 @@
         <v>729</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1765,13 +1771,13 @@
         <v>729</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,7 +1795,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -1801,10 +1807,10 @@
         <v>764172</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -2066,7 +2072,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -2075,7 +2081,7 @@
         <v>1425</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
@@ -2099,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>19</v>
@@ -2111,10 +2117,10 @@
         <v>3654177</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>17</v>
@@ -2126,7 +2132,7 @@
         <v>6929000</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>31</v>
@@ -2188,7 +2194,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS5_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78DS5_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D91BD25-6884-45F8-BE91-581C065FF221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A125B2DE-580D-466E-A098-43D1907763D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13A482DD-C800-4EA9-991B-2C904828F319}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B367D50-8436-44EB-9FF1-2F38DEA38C40}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986EFA1F-E73B-4779-93EF-3F3944306383}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC91398-0B09-46FF-9CCE-93A996FE6B1D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
